--- a/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>161912</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>万家社会责任18个月定期开放混合（LOF）A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.05</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>161913</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>万家社会责任18个月定期开放混合（LOF）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>5.05</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162208</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利首选企业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001195</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信农业产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>88.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>000433</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>安信鑫发优选混合</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>82.44</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.24</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519195</t>
+          <t>009199</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家品质生活灵活配置混合</t>
+          <t>万家价值优势一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>43.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161912</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.50</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3523</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161913</t>
+          <t>519196</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+          <t>万家新兴蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.50</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005821</t>
+          <t>519181</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
+          <t>万家和谐增长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70.99</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>519195</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>万家品质生活灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519181</t>
+          <t>161912</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家和谐增长混合</t>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5429</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519196</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家新兴蓝筹灵活配置混合</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1220,15 +1480,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>92.06</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.32</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1276,15 +1556,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>91.50</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>009649</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>嘉实精选平衡混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>005821</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>万家新机遇龙头企业灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009199</t>
+          <t>161913</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家价值优势一年持有期混合</t>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>44.48</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0477</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7366</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2246,4 +2247,2110 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5947</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3821</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2772</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2709</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9731</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8716</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8568</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8536</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7413</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4568</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4353,4 +4354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4362,7 +4363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4373,17 +4374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4393,14 +4414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.15</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1955</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4409,14 +4452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.75</v>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4425,14 +4490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.53</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4441,13 +4528,1477 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4269</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3847</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3498</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3349</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8148</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8147</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8050</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7360</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5897,7 +5898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5908,17 +5909,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5928,14 +5949,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.42</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5944,14 +5987,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.15</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8903</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5960,14 +6025,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.75</v>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4372</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5976,14 +6063,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.53</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5992,13 +6101,1079 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1878</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1119</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0984</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0716</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>66.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7056,7 +7057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7067,17 +7068,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7087,14 +7108,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.5</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7103,14 +7146,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.42</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7119,14 +7184,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.15</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -7135,14 +7222,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.75</v>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -7151,14 +7260,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.53</v>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -7167,13 +7298,867 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9725</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8740</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>13.32</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>22.42</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>20.15</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>7.75</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>10.53</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.22</v>
       </c>
     </row>
@@ -600,6 +617,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0497</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6516</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5647</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1567,7 +2588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2725,7 +3746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4259,7 +5280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6365,7 +7386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6801,7 +7822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7503,7 +8524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000998-隆平高科.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>9.81</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>13.32</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>22.42</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>20.15</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>7.75</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>10.53</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,1538 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5825</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9853</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8538</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>017289</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011798</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011799</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016264</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016179</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1620,7 +3833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2588,7 +4801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3746,7 +5959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5280,7 +7493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7386,7 +9599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7822,7 +10035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8522,668 +10735,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3577</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7779</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161912</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6035</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4772</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001195</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信农业产业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.44</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2777</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>162208</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利首选企业股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2626</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1874</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1092</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161913</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>